--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>#</t>
   </si>
@@ -30,15 +30,6 @@
     <t>PWD</t>
   </si>
   <si>
-    <t>TC203_AddMembership</t>
-  </si>
-  <si>
-    <t>ISTQB</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -48,9 +39,6 @@
     <t>TC_01_VerifyLoginPage</t>
   </si>
   <si>
-    <t>FN</t>
-  </si>
-  <si>
     <t>LN</t>
   </si>
   <si>
@@ -63,85 +51,40 @@
     <t>RP</t>
   </si>
   <si>
-    <t>Rakesh</t>
-  </si>
-  <si>
     <t>Chandra</t>
   </si>
   <si>
     <t>RakeshChandra</t>
   </si>
   <si>
-    <t>TC_03_AddEntitlements</t>
-  </si>
-  <si>
     <t>EmpName</t>
   </si>
   <si>
     <t>leaveType</t>
   </si>
   <si>
-    <t>CAN - Vacation</t>
-  </si>
-  <si>
     <t>AddEntitlement</t>
   </si>
   <si>
-    <t>Rakesh Chandra</t>
-  </si>
-  <si>
-    <t>TC_10_AddEmployee</t>
-  </si>
-  <si>
-    <t>TC_02_AddEmployee</t>
-  </si>
-  <si>
     <t>Subhash</t>
   </si>
   <si>
-    <t>Test_TC</t>
-  </si>
-  <si>
     <t>LoginLabel</t>
   </si>
   <si>
-    <t>LOGIN Pane</t>
-  </si>
-  <si>
-    <t>TC_04_ApproveLeave</t>
-  </si>
-  <si>
     <t>FromDate</t>
   </si>
   <si>
     <t>ToDate</t>
   </si>
   <si>
-    <t>2022-04-13</t>
-  </si>
-  <si>
-    <t>2022-04-14</t>
-  </si>
-  <si>
     <t>LeaveType Action</t>
   </si>
   <si>
-    <t>Approve</t>
-  </si>
-  <si>
-    <t>TC_05_ApproveLeave</t>
-  </si>
-  <si>
-    <t>TC_06_ApproveLeave</t>
-  </si>
-  <si>
-    <t>Subhash Chandr</t>
-  </si>
-  <si>
-    <t>Subhash Chandra1</t>
-  </si>
-  <si>
-    <t>DropDown</t>
+    <t>LoginLableText</t>
+  </si>
+  <si>
+    <t>LOGIN Panel</t>
   </si>
 </sst>
 </file>
@@ -209,14 +152,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,19 +471,19 @@
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -555,358 +497,72 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="4">
-        <v>10</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="4">
-        <v>10</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="4">
-        <v>10</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Browser Action" sqref="E13">
-      <formula1>"Click, SendKeys, DropDown"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
